--- a/tests/books_toscrape/book_titles.xlsx
+++ b/tests/books_toscrape/book_titles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjord\repos\transistor\tests\books_toscrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C7417D-646A-4C66-AA5B-430922786A32}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3365AF68-79D6-4926-8B6A-287D932BFD1A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11685" windowHeight="4148" xr2:uid="{A981794D-1504-4842-AF12-31D3D191C2DD}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>Soumission</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>Black Dust</t>
+  </si>
+  <si>
+    <t>titles</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -425,22 +425,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">

--- a/tests/books_toscrape/book_titles.xlsx
+++ b/tests/books_toscrape/book_titles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjord\repos\transistor\tests\books_toscrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3365AF68-79D6-4926-8B6A-287D932BFD1A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B86EFB-B2DD-453C-8B37-19FBCFFDF6AA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11685" windowHeight="4148" xr2:uid="{A981794D-1504-4842-AF12-31D3D191C2DD}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
